--- a/phage_genomes/bankit_submission_metadata2.xlsx
+++ b/phage_genomes/bankit_submission_metadata2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen.Wandro\Documents\Projects\phage_cocktails\phage_genomes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC692C85-173E-4B58-9666-84E35D970860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{727DE651-3B4B-446C-8CBA-3CC73B29BEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2FBFDBDF-4082-41DD-9779-06A997A9C942}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -576,22 +577,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6058B2AB-D0FA-41B4-A07D-7377B8B35FF0}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" customWidth="1"/>
-    <col min="5" max="5" width="32.28515625" customWidth="1"/>
+    <col min="4" max="4" width="39.5546875" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="10" max="10" width="30.42578125" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" customWidth="1"/>
-    <col min="12" max="12" width="183.42578125" customWidth="1"/>
+    <col min="10" max="10" width="30.44140625" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" customWidth="1"/>
+    <col min="12" max="12" width="183.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -623,7 +624,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -655,7 +656,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>54</v>
       </c>
@@ -687,7 +688,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -719,7 +720,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -751,7 +752,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -783,7 +784,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -815,7 +816,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -847,7 +848,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -879,7 +880,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -911,7 +912,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -943,7 +944,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -975,7 +976,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1007,7 +1008,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1039,7 +1040,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1071,7 +1072,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1103,7 +1104,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
